--- a/biology/Botanique/Linaire_élatine/Linaire_élatine.xlsx
+++ b/biology/Botanique/Linaire_élatine/Linaire_élatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Linaire_%C3%A9latine</t>
+          <t>Linaire_élatine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kickxia elatine
 La Linaire élatine (Kickxia elatine) est une plante herbacée annuelle de la famille des Scrophulariaceae, ou des Plantaginaceae selon la classification phylogénétique. Elle est assez commune en Europe dans les champs cultivés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Linaire_%C3%A9latine</t>
+          <t>Linaire_élatine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,50 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rampante, basse.
 Les fleurs sont jaune pâle, brun-noir sur la partie supérieure, avec un éperon.
 Les feuilles sont hastées, velues.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Linaire_élatine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linaire_%C3%A9latine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-novembre
 Inflorescence : fleur solitaire latérale
